--- a/SuppXLS/Scen_Z_Myopic.xlsx
+++ b/SuppXLS/Scen_Z_Myopic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666E5F0E-6718-4430-91EB-0FEA2F1297CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AF1AA9-8E6B-48BB-BDB1-01E0702761D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2620" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -52,10 +52,10 @@
     <t>Overlapping years</t>
   </si>
   <si>
-    <t>$SET TIMESTEP 15</t>
-  </si>
-  <si>
     <t xml:space="preserve">RFCmd_DD </t>
+  </si>
+  <si>
+    <t>$SET TIMESTEP 12</t>
   </si>
 </sst>
 </file>
@@ -104,8 +104,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
@@ -416,32 +415,32 @@
   <dimension ref="B7:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.26953125" customWidth="1"/>
-    <col min="5" max="5" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -458,7 +457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -466,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>15</v>
@@ -475,9 +474,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>11</v>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2</v>
